--- a/medicine/Médecine vétérinaire/Épizootie/Épizootie.xlsx
+++ b/medicine/Médecine vétérinaire/Épizootie/Épizootie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pizootie</t>
+          <t>Épizootie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une épizootie (prononcé /e.pi.zo.o.ti/, ou couramment aujourd'hui, /e.pi.zo.o.si/, du préfixe épi-, du grec zôotês, « nature animale », et du suffixe -ie) est une maladie frappant, dans une région plus ou moins vaste, une espèce animale ou un groupe d'espèces dans son ensemble. Si l'épizootie touche un continent ou le monde, on parlera de panzootie, alors que si elle frappe une région d'une façon constante (incidence stable) ou à certaines époques déterminées, on parlera d'enzootie.
-Une épizootie peut se transformer en zoonose si elle se transmet à l'humain : c'est par exemple le cas avec l'encéphalopathie spongiforme bovine (ESB), qui a frappé la Grande-Bretagne et s'est transmise à l'humain sous le nom de maladie de Creutzfeldt-Jakob. Elle peut alors éventuellement évoluer en épidémie (le pendant humain de l'épizootie) ; c'est le cas de la grippe aviaire (une épizootie) qui pourrait devenir contagieuse pour l'humain (une zoonose) et devenir très contagieuse entre les humains eux-mêmes (une épidémie) - selon l'OMS[1].
+Une épizootie peut se transformer en zoonose si elle se transmet à l'humain : c'est par exemple le cas avec l'encéphalopathie spongiforme bovine (ESB), qui a frappé la Grande-Bretagne et s'est transmise à l'humain sous le nom de maladie de Creutzfeldt-Jakob. Elle peut alors éventuellement évoluer en épidémie (le pendant humain de l'épizootie) ; c'est le cas de la grippe aviaire (une épizootie) qui pourrait devenir contagieuse pour l'humain (une zoonose) et devenir très contagieuse entre les humains eux-mêmes (une épidémie) - selon l'OMS.
 Si l'infection épizootique est transmissible à l'humain — cas de la tuberculose, de la peste, de la grippe aviaire, de la rage, etc. — on parle d'anthropo-épizootie. Certaines de ces anthropo-épizooties peuvent être bipolaires : l'humain contamine l'animal puis l'animal contamine l'humain, etc. C'est le cas de la tuberculose. Ainsi en France, où la tuberculose bovine a pu être éradiquée depuis les années 1960, les (très rares) nouveaux cas constatés sont tous dus à une transmission humain → animal (c'est incontestablement une appréhension pour les services vétérinaires).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pizootie</t>
+          <t>Épizootie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Cas historiques d'épizooties</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Peste porcine, par pays, de 1990 à 2000
 - 1990 : Allemagne et Belgique.
@@ -557,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pizootie</t>
+          <t>Épizootie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,9 +589,11 @@
           <t>Liste des maladies animales à déclaration obligatoire établie par l'OIE (Organisation mondiale de la santé animale) en vigueur en 2015</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'accord sur l'application des mesures sanitaires et phytosanitaires (accord SPS) de l'Organisation mondiale du commerce considère les maladies comme des risques spécifiques et donne à toutes les maladies soumises à déclaration auprès de l'OIE le même niveau d'importance pour les échanges commerciaux internationaux. Pour s'aligner sur cette exigence, l'OIE a établi une liste unique fondée sur une série de critères approuvés en mai 2004. En 2005, une première liste unique a été utilisée, modifiée la même année et dont la seconde version est entrée en vigueur en 2006. La liste est révisée annuellement et les éventuelles modifications entrent en application à partir du 1er janvier de l’année suivante[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'accord sur l'application des mesures sanitaires et phytosanitaires (accord SPS) de l'Organisation mondiale du commerce considère les maladies comme des risques spécifiques et donne à toutes les maladies soumises à déclaration auprès de l'OIE le même niveau d'importance pour les échanges commerciaux internationaux. Pour s'aligner sur cette exigence, l'OIE a établi une liste unique fondée sur une série de critères approuvés en mai 2004. En 2005, une première liste unique a été utilisée, modifiée la même année et dont la seconde version est entrée en vigueur en 2006. La liste est révisée annuellement et les éventuelles modifications entrent en application à partir du 1er janvier de l’année suivante.
 Maladies, infections et infestations communes à plusieurs espèces
 Brucellose à Brucella abortus
 Brucellose à Brucella melitensis
